--- a/DATA_goal/Junction_Flooding_43.xlsx
+++ b/DATA_goal/Junction_Flooding_43.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>40750.86111111111</v>
+        <v>40750.86109953704</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>13.18</v>
@@ -1609,7 +1609,7 @@
         <v>10.43</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>42.75</v>
+        <v>42.74</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>15.63</v>
@@ -1633,7 +1633,7 @@
         <v>9.970000000000001</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>14.55</v>
+        <v>14.54</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>8.4</v>
@@ -1663,7 +1663,7 @@
         <v>1.33</v>
       </c>
       <c r="Z11" s="4" t="n">
-        <v>20.39</v>
+        <v>20.38</v>
       </c>
       <c r="AA11" s="4" t="n">
         <v>8.279999999999999</v>
@@ -1681,117 +1681,13 @@
         <v>0.06</v>
       </c>
       <c r="AF11" s="4" t="n">
-        <v>38.92</v>
+        <v>38.91</v>
       </c>
       <c r="AG11" s="4" t="n">
         <v>5.28</v>
       </c>
       <c r="AH11" s="4" t="n">
         <v>11.65</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>40750.86804398148</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>0.82</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_43.xlsx
+++ b/DATA_goal/Junction_Flooding_43.xlsx
@@ -444,37 +444,37 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,103 +655,103 @@
         <v>40750.79861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.8</v>
+        <v>2.58</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="Y2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>2.55</v>
-      </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40750.80555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.7</v>
+        <v>0.47</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.57</v>
+        <v>2.66</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.2</v>
+        <v>0.62</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.43</v>
+        <v>0.44</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="Y3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>0.29</v>
       </c>
-      <c r="Z3" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>2.88</v>
-      </c>
       <c r="AE3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.25</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.8125</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.28</v>
+        <v>1.23</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.54</v>
+        <v>2.55</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.45</v>
+        <v>2.05</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>30.84</v>
+        <v>3.08</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.63</v>
+        <v>1.36</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.99</v>
+        <v>0.9</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.37</v>
+        <v>1.14</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.89</v>
+        <v>0.29</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.82</v>
+        <v>1.28</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.41</v>
+        <v>0.74</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>129.73</v>
+        <v>12.97</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.04</v>
+        <v>2.5</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>17.13</v>
+        <v>1.71</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.17</v>
+        <v>0.92</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.24</v>
+        <v>1.52</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.34</v>
+        <v>0.73</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.08</v>
+        <v>0.61</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>26.97</v>
+        <v>2.7</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40750.81944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.72</v>
+        <v>2.07</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.25</v>
+        <v>1.52</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>44.24</v>
+        <v>4.42</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.09</v>
+        <v>3.61</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.55</v>
+        <v>1.56</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>59.56</v>
+        <v>5.96</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.19</v>
+        <v>2.42</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.16</v>
+        <v>1.92</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.56</v>
+        <v>2.26</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.04</v>
+        <v>1.3</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>232.84</v>
+        <v>23.28</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>44.1</v>
+        <v>4.41</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.76</v>
+        <v>1.48</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.02</v>
+        <v>3</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>29.2</v>
+        <v>2.92</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.01</v>
+        <v>1.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.64</v>
+        <v>1.86</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>53.54</v>
+        <v>5.35</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.15</v>
+        <v>0.82</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.05</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>40750.82638888889</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>16.99</v>
+        <v>1.7</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>28.05</v>
+        <v>2.8</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="S6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>84.12</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.04</v>
-      </c>
       <c r="AH6" s="4" t="n">
-        <v>6.81</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>40750.83333333334</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="N7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD7" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.51</v>
-      </c>
       <c r="AE7" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>6.75</v>
+        <v>0.67</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8">
@@ -1279,55 +1279,55 @@
         <v>40750.84027777778</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="N8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
         <v>0</v>
@@ -1336,46 +1336,46 @@
         <v>0</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="Y8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD8" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="AE8" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>3.28</v>
+        <v>0.33</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>40750.84722222222</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>20.02</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>16.02</v>
+        <v>1.6</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>22.83</v>
+        <v>2.28</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>10.95</v>
+        <v>1.09</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.26</v>
+        <v>0.73</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5.91</v>
+        <v>0.59</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>101.81</v>
+        <v>10.18</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>13.39</v>
+        <v>1.34</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>7.15</v>
+        <v>0.72</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>11.35</v>
+        <v>1.13</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>8.43</v>
+        <v>0.84</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>20.02</v>
+        <v>2</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>40750.85416666666</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>24.73</v>
+        <v>2.47</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>18.46</v>
+        <v>1.85</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>53.45</v>
+        <v>5.34</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>43.75</v>
+        <v>4.37</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>19.53</v>
+        <v>1.95</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>70.79000000000001</v>
+        <v>7.08</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>29.58</v>
+        <v>2.96</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>13.21</v>
+        <v>1.32</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>19.77</v>
+        <v>1.98</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>21.39</v>
+        <v>2.14</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>22.58</v>
+        <v>2.26</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>6.12</v>
+        <v>0.61</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>18.97</v>
+        <v>1.9</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>27.42</v>
+        <v>2.74</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>15.87</v>
+        <v>1.59</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>284.81</v>
+        <v>28.48</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>53.56</v>
+        <v>5.36</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>17.78</v>
+        <v>1.78</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>36.36</v>
+        <v>3.64</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>19.13</v>
+        <v>1.91</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>35.27</v>
+        <v>3.53</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>15.63</v>
+        <v>1.56</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>16.19</v>
+        <v>1.62</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>22.53</v>
+        <v>2.25</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>64.23999999999999</v>
+        <v>6.42</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>10.02</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>22.05</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_43.xlsx
+++ b/DATA_goal/Junction_Flooding_43.xlsx
@@ -473,7 +473,7 @@
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>37499.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.06</v>
+        <v>20.58</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.86</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2</v>
+        <v>20.04</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.7</v>
+        <v>107.05</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.05</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>37499.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.98</v>
+        <v>19.82</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.55</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.63</v>
+        <v>26.3</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.16</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.59</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.85</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.14</v>
+        <v>101.4</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2</v>
+        <v>19.98</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.94</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.01</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.4</v>
+        <v>13.98</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.36</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.44</v>
+        <v>24.39</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.54</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>37499.0625</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P4" s="4" t="n">
+      <c r="S4" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>84.23</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.84</v>
       </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.18</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.7</v>
+        <v>7.05</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.2</v>
+        <v>22.04</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>37499.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.05</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.09</v>
+        <v>20.9</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.73</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.18</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.87</v>
+        <v>28.68</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.59</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.28</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.85</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.55</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.71</v>
+        <v>107.11</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.1</v>
+        <v>21</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.81</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.62</v>
+        <v>26.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.83</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_43.xlsx
+++ b/DATA_goal/Junction_Flooding_43.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,36 +445,36 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,103 +655,103 @@
         <v>37499.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.17</v>
+        <v>9.173</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.53</v>
+        <v>6.534</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.85</v>
+        <v>2.853</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.58</v>
+        <v>20.581</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.86</v>
+        <v>14.857</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.62</v>
+        <v>6.617</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.04</v>
+        <v>20.037</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.57</v>
+        <v>11.575</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.74</v>
+        <v>4.738</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6</v>
+        <v>6.004</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.5</v>
+        <v>8.497</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.644</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.82</v>
+        <v>2.821</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.99</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.07</v>
+        <v>7.075</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.2</v>
+        <v>2.196</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.05</v>
+        <v>107.045</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.66</v>
+        <v>20.658</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.86</v>
+        <v>12.856</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.39</v>
+        <v>7.392</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.4</v>
+        <v>1.396</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.91</v>
+        <v>11.913</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.13</v>
+        <v>6.131</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.79</v>
+        <v>5.786</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.63</v>
+        <v>6.628</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.785</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.215</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.05</v>
+        <v>18.053</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.62</v>
+        <v>3.621</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>37499.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>8.865</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.51</v>
+        <v>6.512</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>1.4</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>19.82</v>
+        <v>19.819</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.27</v>
+        <v>15.268</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.55</v>
+        <v>6.554</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>26.3</v>
+        <v>26.301</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11</v>
+        <v>10.998</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.81</v>
+        <v>4.815</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>6.43</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.16</v>
+        <v>8.156000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>8.356999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.59</v>
+        <v>2.588</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.14</v>
+        <v>7.143</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.85</v>
+        <v>9.853</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>6.47</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.08</v>
+        <v>1.081</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.453</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>101.4</v>
+        <v>101.397</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.98</v>
+        <v>19.985</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.59</v>
+        <v>6.594</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.94</v>
+        <v>12.941</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>7.01</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.04</v>
+        <v>1.042</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.98</v>
+        <v>13.976</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.82</v>
+        <v>5.824</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.36</v>
+        <v>5.359</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.26</v>
+        <v>6.257</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>8.363</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.02</v>
+        <v>1.023</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>24.39</v>
+        <v>24.392</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.54</v>
+        <v>3.537</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.24</v>
+        <v>8.244</v>
       </c>
     </row>
     <row r="4">
@@ -863,10 +863,10 @@
         <v>37499.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.5</v>
+        <v>7.499</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.55</v>
+        <v>5.546</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.96</v>
@@ -878,88 +878,88 @@
         <v>13.08</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.57</v>
+        <v>5.575</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.87</v>
+        <v>23.871</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.26</v>
+        <v>9.257</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.13</v>
+        <v>4.125</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>5.56</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.87</v>
+        <v>6.866</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.06</v>
+        <v>7.064</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.16</v>
+        <v>2.163</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.02</v>
+        <v>6.015</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.35</v>
+        <v>8.353999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.38</v>
+        <v>5.377</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.75</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.318</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>84.23</v>
+        <v>84.23099999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.86</v>
+        <v>16.859</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.55</v>
+        <v>5.552</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.01</v>
+        <v>11.011</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.89</v>
+        <v>5.893</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.837</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.18</v>
+        <v>12.179</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.9</v>
+        <v>4.904</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.48</v>
+        <v>4.483</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.25</v>
+        <v>5.246</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.05</v>
+        <v>7.047</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.671</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.04</v>
+        <v>22.037</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.94</v>
+        <v>6.942</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>8.68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>37499.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.73</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>34.49</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>28.08</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>46.59</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>19.15</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.63</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.57</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>181.51</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>34.65</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>23.23</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>14.32</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_43.xlsx
+++ b/DATA_goal/Junction_Flooding_43.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
@@ -967,103 +967,207 @@
         <v>37499.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>9.462</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.05</v>
+        <v>7.048</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.84</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.9</v>
+        <v>20.897</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.73</v>
+        <v>16.733</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>7.18</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.68</v>
+        <v>28.679</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.59</v>
+        <v>11.588</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.2</v>
+        <v>5.204</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.28</v>
+        <v>7.278</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.52</v>
+        <v>8.516</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.85</v>
+        <v>8.853</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.61</v>
+        <v>2.605</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.55</v>
+        <v>10.547</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.53</v>
+        <v>6.533</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.608</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.332</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>107.11</v>
+        <v>107.112</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21</v>
+        <v>21.003</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.91</v>
+        <v>13.913</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.39</v>
+        <v>7.389</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.01</v>
+        <v>1.013</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.45</v>
+        <v>14.453</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.13</v>
+        <v>6.131</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.52</v>
+        <v>5.519</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.47</v>
+        <v>6.474</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.81</v>
+        <v>8.814</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.19</v>
+        <v>26.187</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.83</v>
+        <v>3.825</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.68</v>
+        <v>8.677</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>37499.07637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>34.49</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>28.08</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>46.59</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>19.15</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>17.57</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>181.51</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>23.23</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>14.32</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_43.xlsx
+++ b/DATA_goal/Junction_Flooding_43.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
@@ -967,207 +967,103 @@
         <v>37499.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.462</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.048</v>
+        <v>7.05</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.84</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.897</v>
+        <v>20.9</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.733</v>
+        <v>16.73</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>7.18</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.679</v>
+        <v>28.68</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.588</v>
+        <v>11.59</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.204</v>
+        <v>5.2</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.278</v>
+        <v>7.28</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.516</v>
+        <v>8.52</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.853</v>
+        <v>8.85</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.605</v>
+        <v>2.61</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.519</v>
+        <v>7.52</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.547</v>
+        <v>10.55</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.533</v>
+        <v>6.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.608</v>
+        <v>0.61</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.332</v>
+        <v>0.33</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>107.112</v>
+        <v>107.11</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.003</v>
+        <v>21</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.941</v>
+        <v>6.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.913</v>
+        <v>13.91</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.389</v>
+        <v>7.39</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.013</v>
+        <v>1.01</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.453</v>
+        <v>14.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.131</v>
+        <v>6.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.519</v>
+        <v>5.52</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.474</v>
+        <v>6.47</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.814</v>
+        <v>8.81</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.187</v>
+        <v>26.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.825</v>
+        <v>3.83</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.677</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>37499.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.73</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>34.49</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>28.08</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>46.59</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>19.15</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.63</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.57</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>181.51</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>34.65</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>23.23</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>14.32</v>
+        <v>8.68</v>
       </c>
     </row>
   </sheetData>
